--- a/fixed/5V_regulator/557nm_16mA/production/ver_0p1_rev_2/CPL_JLCPCB_557nm_16mA.xlsx
+++ b/fixed/5V_regulator/557nm_16mA/production/ver_0p1_rev_2/CPL_JLCPCB_557nm_16mA.xlsx
@@ -226,7 +226,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -493,7 +493,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
